--- a/data/inputs/orcamentos/sample_padrao2_japj.xlsx
+++ b/data/inputs/orcamentos/sample_padrao2_japj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/orcamentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e66243f108409f2/Área de Trabalho/Itaú/CICF/DataCraft/Verificador Inteligente de Obras/codes/construct-cost-ai/data/inputs/orcamentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_2B596957557796436140C5F050CBC83569B5E5FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DFFC89-2EC5-4E21-B01C-7CC8373FCB8B}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_2B596957557796436140C5F050CBC83569B5E5FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A730FC0-1627-48D5-AF51-2A2C9EC1A716}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>itaú</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>SERVIÇOS</t>
-  </si>
-  <si>
-    <t>0167</t>
   </si>
   <si>
     <t>SP-LINS DE VASCONCELOS</t>
@@ -637,9 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -698,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
@@ -708,11 +703,11 @@
       <c r="B7" s="2">
         <v>190272</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2">
+        <v>167</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E7">
         <v>3124.52</v>
@@ -729,38 +724,38 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -779,42 +774,42 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F14" s="7">
         <v>124.57</v>
@@ -829,16 +824,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7">
         <v>49.1</v>
@@ -853,16 +848,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="7">
         <v>19.21</v>
@@ -877,16 +872,16 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F17" s="7">
         <v>91.35</v>
@@ -901,16 +896,16 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F18" s="7">
         <v>120.21</v>
@@ -925,16 +920,16 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7">
         <v>7.67</v>
@@ -949,16 +944,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="7">
         <v>164.09</v>
@@ -973,16 +968,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="7">
         <v>157.29</v>
@@ -997,16 +992,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="7">
         <v>104.01</v>
@@ -1021,16 +1016,16 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7">
         <v>79.44</v>
@@ -1045,16 +1040,16 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="7">
         <v>246.65</v>
@@ -1069,16 +1064,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7">
         <v>237.14</v>
@@ -1103,16 +1098,16 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7">
         <v>190.77</v>
@@ -1127,16 +1122,16 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="7">
         <v>137.05000000000001</v>
@@ -1151,16 +1146,16 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="7">
         <v>89.82</v>
@@ -1175,16 +1170,16 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="7">
         <v>22.25</v>
@@ -1199,16 +1194,16 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F31" s="7">
         <v>169.89</v>
@@ -1223,16 +1218,16 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="7">
         <v>66.81</v>
@@ -1278,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
